--- a/correspondance arduino - Picky.xlsx
+++ b/correspondance arduino - Picky.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Mega PINs" sheetId="3" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="299">
   <si>
     <t>PWM</t>
   </si>
@@ -1018,15 +1018,28 @@
   </si>
   <si>
     <t># CLW_COLOR_NOT_FOUNDED</t>
+  </si>
+  <si>
+    <t>PWM Servos</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>PICKY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;pin&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1065,7 +1078,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,8 +1181,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1251,11 +1276,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,6 +1459,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1466,6 +1527,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2808,13 +2878,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>183930</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>265076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>891488</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1381340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2857,13 +2927,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>223346</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>25114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>955319</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1437055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2906,13 +2976,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>109499</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>56027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>962032</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>806824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2956,13 +3026,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>147443</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1008531</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>769472</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4795,7 +4865,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -4823,7 +4893,7 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="47" t="s">
         <v>28</v>
       </c>
@@ -4855,13 +4925,13 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="78" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="47">
@@ -4895,13 +4965,13 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="47" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="F4" s="74"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="47">
         <v>12</v>
       </c>
@@ -4929,13 +4999,13 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="F5" s="74"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="47">
         <v>11</v>
       </c>
@@ -4969,13 +5039,13 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="F6" s="74"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="47">
         <v>10</v>
       </c>
@@ -5009,13 +5079,13 @@
       <c r="W6" s="14"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="F7" s="74"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="47">
         <v>9</v>
       </c>
@@ -5053,7 +5123,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="F8" s="74"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="47">
         <v>8</v>
       </c>
@@ -5085,7 +5155,7 @@
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -5095,7 +5165,7 @@
       <c r="D9" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="48"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -5121,7 +5191,7 @@
       <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="47" t="s">
         <v>14</v>
       </c>
@@ -5129,7 +5199,7 @@
       <c r="D10" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="47">
         <v>7</v>
       </c>
@@ -5161,7 +5231,7 @@
       <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="47" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5239,7 @@
       <c r="D11" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="47">
         <v>6</v>
       </c>
@@ -5203,7 +5273,7 @@
       <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="47" t="s">
         <v>16</v>
       </c>
@@ -5211,7 +5281,7 @@
       <c r="D12" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="47">
         <v>5</v>
       </c>
@@ -5242,13 +5312,13 @@
       <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="F13" s="74"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="47">
         <v>4</v>
       </c>
@@ -5286,13 +5356,13 @@
       <c r="W13" s="15"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="F14" s="74"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="47">
         <v>3</v>
       </c>
@@ -5330,7 +5400,7 @@
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="47" t="s">
         <v>19</v>
       </c>
@@ -5338,7 +5408,7 @@
       <c r="D15" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="47">
         <v>2</v>
       </c>
@@ -5378,13 +5448,13 @@
       <c r="W15" s="15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="25"/>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="78" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="49">
@@ -5418,11 +5488,11 @@
       <c r="W16" s="15"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="48"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="F17" s="74"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="49">
         <v>0</v>
       </c>
@@ -5454,13 +5524,13 @@
       <c r="W17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="41"/>
-      <c r="F18" s="74"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="48"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -5482,13 +5552,13 @@
       <c r="W18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="41"/>
-      <c r="F19" s="74"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="50">
         <v>14</v>
       </c>
@@ -5509,13 +5579,13 @@
       <c r="W19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="41"/>
-      <c r="F20" s="74"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="50">
         <v>15</v>
       </c>
@@ -5536,13 +5606,13 @@
       <c r="W20" s="15"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="41"/>
-      <c r="F21" s="74"/>
+      <c r="F21" s="78"/>
       <c r="G21" s="51">
         <v>16</v>
       </c>
@@ -5563,13 +5633,13 @@
       <c r="W21" s="15"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="41"/>
-      <c r="F22" s="74"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="51">
         <v>17</v>
       </c>
@@ -5590,13 +5660,13 @@
       <c r="W22" s="15"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="F23" s="74"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="52">
         <v>18</v>
       </c>
@@ -5625,7 +5695,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7"/>
-      <c r="F24" s="74"/>
+      <c r="F24" s="78"/>
       <c r="G24" s="52">
         <v>19</v>
       </c>
@@ -5655,7 +5725,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7"/>
-      <c r="F25" s="74"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="47">
         <v>20</v>
       </c>
@@ -5686,7 +5756,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7"/>
-      <c r="F26" s="74"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="47">
         <v>21</v>
       </c>
@@ -6102,7 +6172,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -6129,7 +6199,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
@@ -6150,7 +6220,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="36" t="s">
         <v>63</v>
       </c>
@@ -6171,7 +6241,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="36" t="s">
         <v>63</v>
       </c>
@@ -6203,7 +6273,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="88" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -6230,7 +6300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="38" t="s">
         <v>66</v>
       </c>
@@ -6266,7 +6336,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="89" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -6289,7 +6359,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="39" t="s">
         <v>63</v>
       </c>
@@ -6310,7 +6380,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="39" t="s">
         <v>63</v>
       </c>
@@ -6342,7 +6412,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -6355,7 +6425,7 @@
       <c r="E15" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="85">
         <v>3</v>
       </c>
       <c r="G15" s="30" t="s">
@@ -6364,12 +6434,12 @@
       <c r="H15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="94" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="38" t="s">
         <v>68</v>
       </c>
@@ -6380,17 +6450,17 @@
       <c r="E16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="45" t="s">
         <v>65</v>
       </c>
@@ -6409,11 +6479,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="85" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="31" t="s">
@@ -6422,36 +6492,36 @@
       <c r="E18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="85">
         <v>5</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="90" t="s">
+      <c r="I18" s="94" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="89"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="31" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="82"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="30"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="91"/>
+      <c r="I19" s="95"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="81" t="s">
+      <c r="A20" s="88"/>
+      <c r="B20" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="85" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -6460,29 +6530,29 @@
       <c r="E20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="85">
         <v>5</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="90" t="s">
+      <c r="I20" s="94" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="89"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="82"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="30"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="91"/>
+      <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
@@ -6496,7 +6566,7 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -6519,7 +6589,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="39" t="s">
         <v>64</v>
       </c>
@@ -6540,7 +6610,7 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="39" t="s">
         <v>64</v>
       </c>
@@ -6561,7 +6631,7 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="39" t="s">
         <v>66</v>
       </c>
@@ -6587,7 +6657,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="39" t="s">
         <v>66</v>
       </c>
@@ -6613,7 +6683,7 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="39" t="s">
         <v>66</v>
       </c>
@@ -6649,7 +6719,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="82" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="40" t="s">
@@ -6672,47 +6742,47 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="86" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="86">
+      <c r="F31" s="90">
         <v>5</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="90" t="s">
+      <c r="I31" s="94" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="87"/>
+      <c r="F32" s="91"/>
       <c r="G32" s="27"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="91"/>
+      <c r="I32" s="95"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="86" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="90" t="s">
         <v>118</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -6721,85 +6791,85 @@
       <c r="E33" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="86">
+      <c r="F33" s="90">
         <v>7</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="90" t="s">
+      <c r="I33" s="94" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="27" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="88"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="88"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="27"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="92"/>
+      <c r="I35" s="96"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="27" t="s">
         <v>111</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="88"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="27"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="92"/>
+      <c r="I36" s="96"/>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="87"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="27"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="91"/>
+      <c r="I37" s="95"/>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="86" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="90" t="s">
         <v>119</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -6808,7 +6878,7 @@
       <c r="E38" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="86">
+      <c r="F38" s="90">
         <v>5</v>
       </c>
       <c r="G38" s="27" t="s">
@@ -6820,16 +6890,16 @@
       <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="27" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="88"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="27" t="s">
         <v>132</v>
       </c>
@@ -6837,16 +6907,16 @@
       <c r="I39" s="27"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="87"/>
+      <c r="F40" s="91"/>
       <c r="G40" s="27" t="s">
         <v>133</v>
       </c>
@@ -6854,7 +6924,7 @@
       <c r="I40" s="27"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="40" t="s">
         <v>66</v>
       </c>
@@ -6879,7 +6949,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="40" t="s">
         <v>66</v>
       </c>
@@ -6904,7 +6974,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="40" t="s">
         <v>66</v>
       </c>
@@ -6929,7 +6999,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="40" t="s">
         <v>66</v>
       </c>
@@ -6954,7 +7024,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="40" t="s">
         <v>66</v>
       </c>
@@ -6979,7 +7049,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="40" t="s">
         <v>66</v>
       </c>
@@ -7118,10 +7188,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7131,291 +7201,343 @@
     <col min="3" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="74">
+        <f ca="1">TODAY()</f>
+        <v>42859</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="28" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D5" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="100"/>
+      <c r="B7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="6">
-        <v>1638</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C7" s="6">
+        <v>1726</v>
+      </c>
+      <c r="D7" s="6">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="100"/>
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6">
+        <v>863</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
+      <c r="B9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="6">
+        <v>627</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="100"/>
+      <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1160</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="95"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="55">
+        <v>1982</v>
+      </c>
+      <c r="D19" s="55">
+        <v>1800</v>
+      </c>
+      <c r="E19" s="55">
+        <v>1650</v>
+      </c>
+      <c r="F19" s="55">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="57"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="96"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="58">
+        <v>876</v>
+      </c>
+      <c r="D21" s="58">
+        <v>1824</v>
+      </c>
+      <c r="E21" s="57"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="96"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="96"/>
+      <c r="B23" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="66">
+        <v>2240</v>
+      </c>
+      <c r="D23" s="66">
+        <v>2067</v>
+      </c>
+      <c r="E23" s="63">
+        <v>1792</v>
+      </c>
+      <c r="F23" s="62">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="6">
-        <v>667</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="6">
-        <v>603</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1160</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="55">
-        <v>2151</v>
-      </c>
-      <c r="D17" s="55">
-        <v>2046</v>
-      </c>
-      <c r="E17" s="55">
-        <v>1833</v>
-      </c>
-      <c r="F17" s="55">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="58">
-        <v>788</v>
-      </c>
-      <c r="D19" s="58">
-        <v>1786</v>
-      </c>
-      <c r="E19" s="57"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="65" t="s">
+      <c r="G23" s="62">
+        <v>600</v>
+      </c>
+      <c r="H23" s="62">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="96"/>
+      <c r="B24" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="66">
-        <v>701</v>
-      </c>
-      <c r="D22" s="66">
+      <c r="C24" s="66">
+        <v>544</v>
+      </c>
+      <c r="D24" s="66">
         <v>832</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E24" s="63">
         <v>1132</v>
       </c>
-      <c r="F22" s="62">
-        <v>2276</v>
-      </c>
-      <c r="G22" s="62">
-        <v>2115</v>
-      </c>
-      <c r="H22" s="62">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="99" t="s">
+      <c r="F24" s="62">
+        <v>2400</v>
+      </c>
+      <c r="G24" s="62">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="62">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="96"/>
+      <c r="B25" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C25" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D25" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E25" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F25" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G25" s="61" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="59">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="96"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="59">
         <v>790</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D26" s="59">
         <v>1188</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E26" s="59">
         <v>1541</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F26" s="59">
         <v>1864</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G26" s="59">
         <v>2302</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="97" t="s">
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="96"/>
+      <c r="B27" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C27" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D27" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E27" s="60" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="9">
-        <v>1218</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1583</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1795</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="95"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="9">
+        <v>1071</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1418</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1792</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="9">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="81" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7427,7 +7549,7 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -7440,12 +7562,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -7457,10 +7579,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="94" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="28">
@@ -7471,8 +7593,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="69">
         <v>1</v>
       </c>
@@ -7481,8 +7603,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="69">
         <v>2</v>
       </c>
@@ -7491,8 +7613,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="69">
         <v>3</v>
       </c>
@@ -7501,8 +7623,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="69">
         <v>4</v>
       </c>
@@ -7511,8 +7633,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="28">
         <v>5</v>
       </c>
@@ -7534,10 +7656,10 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="94" t="s">
         <v>172</v>
       </c>
       <c r="C11" s="28">
@@ -7552,8 +7674,8 @@
       <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="28">
         <v>1</v>
       </c>
@@ -7566,8 +7688,8 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="28">
         <v>2</v>
       </c>
@@ -7580,8 +7702,8 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="28">
         <v>3</v>
       </c>
@@ -7594,8 +7716,8 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="28">
         <v>4</v>
       </c>
@@ -7608,8 +7730,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="28">
         <v>5</v>
       </c>
@@ -7620,8 +7742,8 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="28">
         <v>6</v>
       </c>
@@ -7632,8 +7754,8 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="28">
         <v>7</v>
       </c>
@@ -7644,8 +7766,8 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="28">
         <v>8</v>
       </c>
@@ -7654,8 +7776,8 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="28">
         <v>9</v>
       </c>
@@ -7671,10 +7793,10 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="94" t="s">
         <v>183</v>
       </c>
       <c r="C22" s="28">
@@ -7685,8 +7807,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="28">
         <v>1</v>
       </c>
@@ -7695,8 +7817,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="28">
         <v>2</v>
       </c>
@@ -7705,8 +7827,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="28">
         <v>3</v>
       </c>
@@ -7715,8 +7837,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="28">
         <v>4</v>
       </c>
@@ -7731,10 +7853,10 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="94" t="s">
         <v>190</v>
       </c>
       <c r="C28" s="28">
@@ -7743,20 +7865,20 @@
       <c r="D28" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="110" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="28">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E29" s="103"/>
+      <c r="E29" s="110"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -7765,10 +7887,10 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="94" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="28">
@@ -7780,8 +7902,8 @@
       <c r="E31" s="73"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="28">
         <v>1</v>
       </c>
@@ -7796,8 +7918,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="28">
         <v>2</v>
       </c>
@@ -7812,8 +7934,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="28">
         <v>3</v>
       </c>
@@ -7828,8 +7950,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="28">
         <v>4</v>
       </c>
@@ -7842,8 +7964,8 @@
       <c r="F35" s="73"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="28">
         <v>5</v>
       </c>
@@ -7855,8 +7977,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="28">
         <v>6</v>
       </c>
@@ -7868,8 +7990,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="28">
         <v>7</v>
       </c>
@@ -7881,8 +8003,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="28">
         <v>8</v>
       </c>
@@ -7894,8 +8016,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="28">
         <v>9</v>
       </c>
@@ -7913,10 +8035,10 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="94" t="s">
         <v>206</v>
       </c>
       <c r="C42" s="28">
@@ -7927,8 +8049,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="28">
         <v>1</v>
       </c>
@@ -7937,8 +8059,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="28">
         <v>2</v>
       </c>
@@ -7947,8 +8069,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="28">
         <v>3</v>
       </c>
@@ -7957,8 +8079,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="28">
         <v>4</v>
       </c>
@@ -7967,8 +8089,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="91"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="28">
         <v>5</v>
       </c>
@@ -7983,10 +8105,10 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="100" t="s">
         <v>214</v>
       </c>
       <c r="C49" s="28">
@@ -8003,8 +8125,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
-      <c r="B50" s="93"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="28">
         <v>1</v>
       </c>
@@ -8016,8 +8138,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
-      <c r="B51" s="93"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="28">
         <v>2</v>
       </c>
@@ -8032,8 +8154,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
-      <c r="B52" s="93"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="28">
         <v>3</v>
       </c>
@@ -8048,8 +8170,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
-      <c r="B53" s="93"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="100"/>
       <c r="C53" s="28">
         <v>4</v>
       </c>
@@ -8064,8 +8186,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="102"/>
-      <c r="B54" s="93"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="28">
         <v>5</v>
       </c>
@@ -8080,8 +8202,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="28">
         <v>6</v>
       </c>
@@ -8093,8 +8215,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
-      <c r="B56" s="93"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="28">
         <v>7</v>
       </c>
@@ -8109,8 +8231,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="B57" s="93"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="28">
         <v>8</v>
       </c>
@@ -8131,10 +8253,10 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="100" t="s">
         <v>224</v>
       </c>
       <c r="C59" s="28">
@@ -8145,8 +8267,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="93"/>
-      <c r="B60" s="93"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="28">
         <v>1</v>
       </c>
@@ -8155,8 +8277,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="93"/>
-      <c r="B61" s="93"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="28">
         <v>2</v>
       </c>
@@ -8179,10 +8301,10 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="93" t="s">
+      <c r="A64" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="100" t="s">
         <v>230</v>
       </c>
       <c r="C64" s="28">
@@ -8193,8 +8315,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="93"/>
-      <c r="B65" s="93"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="28">
         <v>1</v>
       </c>
@@ -8209,10 +8331,10 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="100" t="s">
         <v>234</v>
       </c>
       <c r="C67" s="28">
@@ -8223,8 +8345,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="93"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="28">
         <v>1</v>
       </c>
@@ -8233,8 +8355,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
-      <c r="B69" s="93"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="28">
         <v>2</v>
       </c>
@@ -8249,10 +8371,10 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="100" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="28">
@@ -8263,8 +8385,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="28">
         <v>1</v>
       </c>
@@ -8273,8 +8395,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="93"/>
-      <c r="B73" s="93"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="28">
         <v>2</v>
       </c>
@@ -8283,8 +8405,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="93"/>
-      <c r="B74" s="93"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="28">
         <v>3</v>
       </c>
@@ -8293,8 +8415,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="93"/>
-      <c r="B75" s="93"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="28">
         <v>4</v>
       </c>
@@ -8309,10 +8431,10 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="93" t="s">
+      <c r="B77" s="100" t="s">
         <v>245</v>
       </c>
       <c r="C77" s="28">
@@ -8323,8 +8445,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="93"/>
-      <c r="B78" s="93"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="100"/>
       <c r="C78" s="28">
         <v>1</v>
       </c>
@@ -8333,8 +8455,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="93"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="100"/>
       <c r="C79" s="28">
         <v>2</v>
       </c>
@@ -8343,8 +8465,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="93"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="28">
         <v>3</v>
       </c>
@@ -8353,8 +8475,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="93"/>
-      <c r="B81" s="93"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="28">
         <v>4</v>
       </c>
@@ -8363,8 +8485,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="93"/>
-      <c r="B82" s="93"/>
+      <c r="A82" s="100"/>
+      <c r="B82" s="100"/>
       <c r="C82" s="28">
         <v>5</v>
       </c>

--- a/correspondance arduino - Picky.xlsx
+++ b/correspondance arduino - Picky.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Mega PINs" sheetId="3" r:id="rId1"/>
     <sheet name="PINS" sheetId="4" r:id="rId2"/>
     <sheet name="PWM servo" sheetId="6" r:id="rId3"/>
     <sheet name="arduino orders" sheetId="7" r:id="rId4"/>
-    <sheet name="STRAT" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1474,6 +1473,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1492,12 +1518,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,25 +1527,16 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,26 +1560,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3075,1443 +3074,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>136722</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50502E5F-18DB-4BAF-BD35-F606D13EBB5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="123825"/>
-          <a:ext cx="10058400" cy="7442397"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85E55B4-29D9-4F1B-B2AF-44E9AF506F43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1581150" y="2200276"/>
-          <a:ext cx="981075" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>push cratere</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Arrow: Right 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC63EF15-4E41-42A7-A016-5C3AB1B2AF36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2209800" y="2143125"/>
-          <a:ext cx="1009650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Arrow: Curved Up 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D37EDD8-8F41-4358-B5E3-FBAA333C39EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="700087" y="4090986"/>
-          <a:ext cx="1314450" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 31085"/>
-            <a:gd name="adj2" fmla="val 64829"/>
-            <a:gd name="adj3" fmla="val 61842"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C63454E-7DA0-43D6-BB75-C257DF4B8F00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3428999" y="514350"/>
-          <a:ext cx="1571625" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>collecte distrib mono</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51115BB-CC01-4120-8D1F-4BDF7B4111B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="4524375"/>
-          <a:ext cx="981075" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>distrib poly</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F1DE22-62A0-45FE-9BC4-0045440815CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4743450" y="4857750"/>
-          <a:ext cx="981075" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>depot vertical</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009C1B80-56AD-4976-A31D-C0431EA49E86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086101" y="5467350"/>
-          <a:ext cx="1047750" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>depot diagonal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DB1410-834E-485C-9565-2FCC18F27103}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4105276" y="1485900"/>
-          <a:ext cx="1381124" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>push distrib mono</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>576261</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Arrow: Curved Up 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D604379-56D6-4C43-B45A-636FC2F7628C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2981324" y="947736"/>
-          <a:ext cx="1252537" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 24746"/>
-            <a:gd name="adj2" fmla="val 64829"/>
-            <a:gd name="adj3" fmla="val 61842"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335E5373-DC30-4C3D-8D7C-7CD85FD5524B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2666999" y="3933825"/>
-          <a:ext cx="1704975" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>collect centraux restant</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E41E890-537F-46CE-9030-07B77770A166}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2390775" y="3543300"/>
-          <a:ext cx="1504950" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>collect centraux init</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Oval 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66896F1C-D76A-4E6D-B19A-AC682F0DC0DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1857375" y="3057525"/>
-          <a:ext cx="2238375" cy="2238375"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Oval 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E88A3F0-0847-4765-86F1-C90BF6AD11A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="2305050"/>
-          <a:ext cx="2238375" cy="2238375"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Oval 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA989166-E9C4-4B3D-8F64-41029EF1787C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209675" y="2390775"/>
-          <a:ext cx="1038225" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Oval 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB92B6FF-B64E-4A11-984A-5CA6B5DE9F4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2400300" y="5505450"/>
-          <a:ext cx="1038225" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Oval 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB6FD0D-DA88-4D58-9FFC-970626A1D41A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="971550" y="4324350"/>
-          <a:ext cx="1038225" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Oval 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413F148A-09BA-4F41-A439-35FCD13E39B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2981325" y="1343025"/>
-          <a:ext cx="1038225" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEC3BBF-156B-44E2-B969-E3AD2DBFC997}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1714500" y="2819400"/>
-          <a:ext cx="1171575" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE181DBF-765E-46D4-AFD4-2A190E1248FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2971800" y="3333750"/>
-          <a:ext cx="1409700" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5097B4A4-8873-45AB-B48D-8056B185F124}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2886076" y="4324350"/>
-          <a:ext cx="66674" cy="1752600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A0986C-1701-4CA2-AC50-60FF9EBEAC2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1524000" y="4333875"/>
-          <a:ext cx="1257300" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4838,8 +3400,8 @@
   </sheetPr>
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6172,7 +4734,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="94" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -6199,7 +4761,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
@@ -6220,7 +4782,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="36" t="s">
         <v>63</v>
       </c>
@@ -6241,7 +4803,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="36" t="s">
         <v>63</v>
       </c>
@@ -6273,7 +4835,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="95" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -6300,7 +4862,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="38" t="s">
         <v>66</v>
       </c>
@@ -6336,7 +4898,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="96" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -6359,7 +4921,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="39" t="s">
         <v>63</v>
       </c>
@@ -6380,7 +4942,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="39" t="s">
         <v>63</v>
       </c>
@@ -6412,7 +4974,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="95" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -6434,12 +4996,12 @@
       <c r="H15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="94" t="s">
+      <c r="I15" s="79" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="38" t="s">
         <v>68</v>
       </c>
@@ -6457,10 +5019,10 @@
       <c r="H16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="95"/>
+      <c r="I16" s="80"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="45" t="s">
         <v>65</v>
       </c>
@@ -6479,7 +5041,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="85" t="s">
         <v>67</v>
       </c>
@@ -6497,14 +5059,14 @@
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="94" t="s">
+      <c r="I18" s="79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="86"/>
-      <c r="C19" s="93"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="31" t="s">
         <v>79</v>
       </c>
@@ -6514,10 +5076,10 @@
       <c r="F19" s="86"/>
       <c r="G19" s="30"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="95"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="85" t="s">
         <v>67</v>
       </c>
@@ -6535,14 +5097,14 @@
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="94" t="s">
+      <c r="I20" s="79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="86"/>
-      <c r="C21" s="93"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="31" t="s">
         <v>81</v>
       </c>
@@ -6552,7 +5114,7 @@
       <c r="F21" s="86"/>
       <c r="G21" s="30"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="95"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
@@ -6566,7 +5128,7 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="88" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -6589,7 +5151,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="39" t="s">
         <v>64</v>
       </c>
@@ -6610,7 +5172,7 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="39" t="s">
         <v>64</v>
       </c>
@@ -6631,7 +5193,7 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="39" t="s">
         <v>66</v>
       </c>
@@ -6657,7 +5219,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="39" t="s">
         <v>66</v>
       </c>
@@ -6683,7 +5245,7 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="39" t="s">
         <v>66</v>
       </c>
@@ -6719,7 +5281,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="91" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="40" t="s">
@@ -6742,47 +5304,47 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="90" t="s">
+      <c r="A31" s="92"/>
+      <c r="B31" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="90"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="90">
+      <c r="F31" s="82">
         <v>5</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="94" t="s">
+      <c r="I31" s="79" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="91"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="27"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="95"/>
+      <c r="I32" s="80"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="90" t="s">
+      <c r="A33" s="92"/>
+      <c r="B33" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="82" t="s">
         <v>118</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -6791,85 +5353,85 @@
       <c r="E33" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="90">
+      <c r="F33" s="82">
         <v>7</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="94" t="s">
+      <c r="I33" s="79" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="27" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="92"/>
+      <c r="F34" s="84"/>
       <c r="G34" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="96"/>
+      <c r="I34" s="81"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="84"/>
       <c r="G35" s="27"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="96"/>
+      <c r="I35" s="81"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="27" t="s">
         <v>111</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="92"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="27"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="96"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="91"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="27"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="95"/>
+      <c r="I37" s="80"/>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="90" t="s">
+      <c r="A38" s="92"/>
+      <c r="B38" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="82" t="s">
         <v>119</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -6878,7 +5440,7 @@
       <c r="E38" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="90">
+      <c r="F38" s="82">
         <v>5</v>
       </c>
       <c r="G38" s="27" t="s">
@@ -6890,16 +5452,16 @@
       <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="27" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="92"/>
+      <c r="F39" s="84"/>
       <c r="G39" s="27" t="s">
         <v>132</v>
       </c>
@@ -6907,16 +5469,16 @@
       <c r="I39" s="27"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
       <c r="D40" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="91"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="27" t="s">
         <v>133</v>
       </c>
@@ -6924,7 +5486,7 @@
       <c r="I40" s="27"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="40" t="s">
         <v>66</v>
       </c>
@@ -6949,7 +5511,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="40" t="s">
         <v>66</v>
       </c>
@@ -6974,7 +5536,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="40" t="s">
         <v>66</v>
       </c>
@@ -6999,7 +5561,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="40" t="s">
         <v>66</v>
       </c>
@@ -7024,7 +5586,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="40" t="s">
         <v>66</v>
       </c>
@@ -7049,7 +5611,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="40" t="s">
         <v>66</v>
       </c>
@@ -7137,22 +5699,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I33:I37"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A30:A46"/>
     <mergeCell ref="B18:B19"/>
@@ -7164,6 +5710,22 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B40"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
@@ -7190,8 +5752,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7202,16 +5764,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -7233,7 +5795,7 @@
       </c>
       <c r="B3" s="74">
         <f ca="1">TODAY()</f>
-        <v>42859</v>
+        <v>42860</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -7241,7 +5803,7 @@
       <c r="F3" s="67"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="104" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="6"/>
@@ -7253,13 +5815,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="6"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="6" t="s">
         <v>99</v>
       </c>
@@ -7271,7 +5833,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="6" t="s">
         <v>100</v>
       </c>
@@ -7283,7 +5845,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="6" t="s">
         <v>101</v>
       </c>
@@ -7295,7 +5857,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="104" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="6"/>
@@ -7307,13 +5869,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="6"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="6" t="s">
         <v>83</v>
       </c>
@@ -7325,10 +5887,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="105" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -7345,8 +5907,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="55">
         <v>1982</v>
       </c>
@@ -7361,10 +5923,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="106" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="56" t="s">
@@ -7376,8 +5938,8 @@
       <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="58">
         <v>876</v>
       </c>
@@ -7387,7 +5949,7 @@
       <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63" t="s">
         <v>146</v>
@@ -7409,7 +5971,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="65" t="s">
         <v>116</v>
       </c>
@@ -7433,7 +5995,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="65" t="s">
         <v>117</v>
       </c>
@@ -7457,8 +6019,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="106" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="99" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="61" t="s">
@@ -7478,8 +6040,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="107"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="59">
         <v>790</v>
       </c>
@@ -7497,8 +6059,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="104" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="97" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="60" t="s">
@@ -7512,8 +6074,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="9">
         <v>1071</v>
       </c>
@@ -7562,12 +6124,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -7579,10 +6141,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="79" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="28">
@@ -7593,8 +6155,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="69">
         <v>1</v>
       </c>
@@ -7603,8 +6165,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="69">
         <v>2</v>
       </c>
@@ -7613,8 +6175,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="69">
         <v>3</v>
       </c>
@@ -7623,8 +6185,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="69">
         <v>4</v>
       </c>
@@ -7633,8 +6195,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="28">
         <v>5</v>
       </c>
@@ -7656,10 +6218,10 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="79" t="s">
         <v>172</v>
       </c>
       <c r="C11" s="28">
@@ -7674,8 +6236,8 @@
       <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="28">
         <v>1</v>
       </c>
@@ -7688,8 +6250,8 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="28">
         <v>2</v>
       </c>
@@ -7702,8 +6264,8 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="28">
         <v>3</v>
       </c>
@@ -7716,8 +6278,8 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="28">
         <v>4</v>
       </c>
@@ -7730,8 +6292,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="28">
         <v>5</v>
       </c>
@@ -7742,8 +6304,8 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="28">
         <v>6</v>
       </c>
@@ -7754,8 +6316,8 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="28">
         <v>7</v>
       </c>
@@ -7766,8 +6328,8 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="28">
         <v>8</v>
       </c>
@@ -7776,8 +6338,8 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="28">
         <v>9</v>
       </c>
@@ -7793,10 +6355,10 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="79" t="s">
         <v>183</v>
       </c>
       <c r="C22" s="28">
@@ -7807,8 +6369,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="28">
         <v>1</v>
       </c>
@@ -7817,8 +6379,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="28">
         <v>2</v>
       </c>
@@ -7827,8 +6389,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="28">
         <v>3</v>
       </c>
@@ -7837,8 +6399,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="28">
         <v>4</v>
       </c>
@@ -7853,10 +6415,10 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="79" t="s">
         <v>190</v>
       </c>
       <c r="C28" s="28">
@@ -7865,20 +6427,20 @@
       <c r="D28" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="110" t="s">
+      <c r="E28" s="108" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="28">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E29" s="110"/>
+      <c r="E29" s="108"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -7887,10 +6449,10 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="79" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="28">
@@ -7902,8 +6464,8 @@
       <c r="E31" s="73"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="28">
         <v>1</v>
       </c>
@@ -7918,8 +6480,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="96"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="28">
         <v>2</v>
       </c>
@@ -7934,8 +6496,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="28">
         <v>3</v>
       </c>
@@ -7950,8 +6512,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="28">
         <v>4</v>
       </c>
@@ -7964,8 +6526,8 @@
       <c r="F35" s="73"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="28">
         <v>5</v>
       </c>
@@ -7977,8 +6539,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="28">
         <v>6</v>
       </c>
@@ -7990,8 +6552,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="28">
         <v>7</v>
       </c>
@@ -8003,8 +6565,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="28">
         <v>8</v>
       </c>
@@ -8016,8 +6578,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="28">
         <v>9</v>
       </c>
@@ -8035,10 +6597,10 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="79" t="s">
         <v>206</v>
       </c>
       <c r="C42" s="28">
@@ -8049,8 +6611,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="28">
         <v>1</v>
       </c>
@@ -8059,8 +6621,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="96"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="28">
         <v>2</v>
       </c>
@@ -8069,8 +6631,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="28">
         <v>3</v>
       </c>
@@ -8079,8 +6641,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="28">
         <v>4</v>
       </c>
@@ -8089,8 +6651,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="95"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="28">
         <v>5</v>
       </c>
@@ -8108,7 +6670,7 @@
       <c r="A49" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="104" t="s">
         <v>214</v>
       </c>
       <c r="C49" s="28">
@@ -8126,7 +6688,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="109"/>
-      <c r="B50" s="100"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="28">
         <v>1</v>
       </c>
@@ -8139,7 +6701,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="109"/>
-      <c r="B51" s="100"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="28">
         <v>2</v>
       </c>
@@ -8155,7 +6717,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="109"/>
-      <c r="B52" s="100"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="28">
         <v>3</v>
       </c>
@@ -8171,7 +6733,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="109"/>
-      <c r="B53" s="100"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="28">
         <v>4</v>
       </c>
@@ -8187,7 +6749,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="109"/>
-      <c r="B54" s="100"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="28">
         <v>5</v>
       </c>
@@ -8203,7 +6765,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="109"/>
-      <c r="B55" s="100"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="28">
         <v>6</v>
       </c>
@@ -8216,7 +6778,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="109"/>
-      <c r="B56" s="100"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="28">
         <v>7</v>
       </c>
@@ -8232,7 +6794,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="109"/>
-      <c r="B57" s="100"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="28">
         <v>8</v>
       </c>
@@ -8253,10 +6815,10 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="100" t="s">
+      <c r="A59" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="104" t="s">
         <v>224</v>
       </c>
       <c r="C59" s="28">
@@ -8267,8 +6829,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="28">
         <v>1</v>
       </c>
@@ -8277,8 +6839,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="28">
         <v>2</v>
       </c>
@@ -8301,10 +6863,10 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="100" t="s">
+      <c r="A64" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="B64" s="100" t="s">
+      <c r="B64" s="104" t="s">
         <v>230</v>
       </c>
       <c r="C64" s="28">
@@ -8315,8 +6877,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="28">
         <v>1</v>
       </c>
@@ -8331,10 +6893,10 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="100" t="s">
+      <c r="A67" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="104" t="s">
         <v>234</v>
       </c>
       <c r="C67" s="28">
@@ -8345,8 +6907,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="28">
         <v>1</v>
       </c>
@@ -8355,8 +6917,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="100"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="104"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="28">
         <v>2</v>
       </c>
@@ -8371,10 +6933,10 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="100" t="s">
+      <c r="A71" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="100" t="s">
+      <c r="B71" s="104" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="28">
@@ -8385,8 +6947,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="100"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="28">
         <v>1</v>
       </c>
@@ -8395,8 +6957,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="100"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="104"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="28">
         <v>2</v>
       </c>
@@ -8405,8 +6967,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="100"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="28">
         <v>3</v>
       </c>
@@ -8415,8 +6977,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
-      <c r="B75" s="100"/>
+      <c r="A75" s="104"/>
+      <c r="B75" s="104"/>
       <c r="C75" s="28">
         <v>4</v>
       </c>
@@ -8431,10 +6993,10 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="100" t="s">
+      <c r="B77" s="104" t="s">
         <v>245</v>
       </c>
       <c r="C77" s="28">
@@ -8445,8 +7007,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
-      <c r="B78" s="100"/>
+      <c r="A78" s="104"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="28">
         <v>1</v>
       </c>
@@ -8455,8 +7017,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="100"/>
-      <c r="B79" s="100"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="28">
         <v>2</v>
       </c>
@@ -8465,8 +7027,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="100"/>
-      <c r="B80" s="100"/>
+      <c r="A80" s="104"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="28">
         <v>3</v>
       </c>
@@ -8475,8 +7037,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="100"/>
-      <c r="B81" s="100"/>
+      <c r="A81" s="104"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="28">
         <v>4</v>
       </c>
@@ -8485,8 +7047,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="100"/>
-      <c r="B82" s="100"/>
+      <c r="A82" s="104"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="28">
         <v>5</v>
       </c>
@@ -8496,6 +7058,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="B49:B57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="B67:B69"/>
@@ -8507,21 +7084,6 @@
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="B49:B57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B11:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
@@ -8530,25 +7092,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
